--- a/1лаба/hee.xlsx
+++ b/1лаба/hee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488C4989-B170-4D09-98F3-192CD3A9762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47874E4E-0AAB-4981-B6AE-348AD797154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
